--- a/Tratamento/src/Dados_limpos/novos/limpo_cobasi_20251103_201508.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_cobasi_20251103_201508.xlsx
@@ -5457,7 +5457,7 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5527,7 +5527,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
